--- a/data/trans_bre/P37-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P37-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 6,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 6,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,77; 14,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 26,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,87; 8,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 19,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 27,98</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,74%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 1,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 1,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 19,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,5; 17,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,19; 2,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,92; 18,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 77,57</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,64%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 3,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 1,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,92; 22,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,91; 24,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,52; 39,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,29; 5,98</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 3,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 3,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 13,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 28,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,4; 15,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 22,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,98; 41,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P37-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 14,63</t>
+          <t>5,34; 15,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 27,98</t>
+          <t>9,13; 29,76</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>48,8%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 19,6</t>
+          <t>2,05; 32,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 77,57</t>
+          <t>8,0; 173,23</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,64%</t>
+          <t>-7,29%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 1,92</t>
+          <t>-7,42; 2,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 5,98</t>
+          <t>-20,16; 7,99</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>34,64%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 13,28</t>
+          <t>4,42; 21,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 41,9</t>
+          <t>14,18; 84,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P37-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 6,41</t>
+          <t>-0,85; 6,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 2,75</t>
+          <t>-5,98; 2,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,12</t>
+          <t>-2,97; 6,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 15,28</t>
+          <t>5,57; 14,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 26,01</t>
+          <t>-3,1; 26,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 8,32</t>
+          <t>-15,92; 8,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 19,34</t>
+          <t>-8,32; 20,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 29,76</t>
+          <t>9,16; 29,14</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,03</t>
+          <t>-2,28; 1,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,2</t>
+          <t>-4,0; 0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,76</t>
+          <t>-2,34; 1,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 32,56</t>
+          <t>2,16; 31,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 17,57</t>
+          <t>-28,84; 18,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 2,13</t>
+          <t>-33,9; 1,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 18,41</t>
+          <t>-20,26; 18,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 173,23</t>
+          <t>8,07; 167,75</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 2,12</t>
+          <t>-5,93; 1,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,18</t>
+          <t>-5,71; 2,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,42</t>
+          <t>-4,3; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 2,45</t>
+          <t>-7,18; 2,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 22,2</t>
+          <t>-43,95; 19,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 24,66</t>
+          <t>-44,25; 28,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 39,21</t>
+          <t>-33,4; 41,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 7,99</t>
+          <t>-20,05; 8,16</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,74</t>
+          <t>0,3; 3,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,55</t>
+          <t>-1,33; 2,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,39</t>
+          <t>-0,32; 3,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 21,87</t>
+          <t>3,93; 23,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 28,25</t>
+          <t>2,02; 29,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 15,3</t>
+          <t>-7,23; 14,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 22,76</t>
+          <t>-1,9; 24,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,18; 84,51</t>
+          <t>12,55; 86,69</t>
         </is>
       </c>
     </row>
